--- a/需求2.0/v2.0迭代需求20190514.xlsx
+++ b/需求2.0/v2.0迭代需求20190514.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhe/Desktop/蜜钥app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shilei-resource\sihuo\UPLAN\需求2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{45008914-DF5F-D443-BE80-454376514FC3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13740" yWindow="5960" windowWidth="25940" windowHeight="16720" xr2:uid="{B17CFA1C-3471-734E-9939-C0373DECEECF}"/>
+    <workbookView xWindow="13740" yWindow="5964" windowWidth="25944" windowHeight="16716"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -364,7 +364,7 @@
   </si>
   <si>
     <t>重置密码、设置密码、注册页面自动填充手机号</t>
-    <rPh sb="0" eb="218">
+    <rPh sb="0" eb="21">
       <t>she zhi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -415,8 +415,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -678,30 +678,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -710,6 +686,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1027,33 +1027,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7432A6-1AB5-844E-94E9-2AEB54C6320F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="65.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="6" width="21.1640625" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="65.36328125" customWidth="1"/>
+    <col min="4" max="4" width="19.36328125" customWidth="1"/>
+    <col min="5" max="6" width="21.1796875" customWidth="1"/>
+    <col min="7" max="7" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="56" customHeight="1">
+    <row r="1" spans="1:7" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
-    </row>
-    <row r="2" spans="1:7" ht="48" customHeight="1">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
+    </row>
+    <row r="2" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1076,11 +1076,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="59" customHeight="1">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:7" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="7" t="s">
         <v>26</v>
       </c>
@@ -1093,9 +1093,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="43" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
+    <row r="4" spans="1:7" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="4" t="s">
         <v>52</v>
       </c>
@@ -1106,9 +1106,9 @@
       </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="37" customHeight="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
+    <row r="5" spans="1:7" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1119,8 +1119,8 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="37" customHeight="1">
-      <c r="A6" s="24"/>
+    <row r="6" spans="1:7" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27"/>
       <c r="B6" s="34"/>
       <c r="C6" s="15" t="s">
         <v>20</v>
@@ -1132,11 +1132,11 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="37" customHeight="1">
-      <c r="A7" s="24" t="s">
+    <row r="7" spans="1:7" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="19" t="s">
         <v>29</v>
       </c>
@@ -1147,9 +1147,9 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="37" customHeight="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
+    <row r="8" spans="1:7" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="20" t="s">
         <v>30</v>
       </c>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="37" customHeight="1">
+    <row r="9" spans="1:7" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34"/>
       <c r="B9" s="34"/>
       <c r="C9" s="20" t="s">
@@ -1175,11 +1175,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="49" customHeight="1">
-      <c r="A10" s="23" t="s">
+    <row r="10" spans="1:7" ht="49.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="7" t="s">
         <v>38</v>
       </c>
@@ -1192,10 +1192,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="43" customHeight="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="31" t="s">
+    <row r="11" spans="1:7" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="23" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="10"/>
@@ -1205,10 +1205,10 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="38" customHeight="1">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="31" t="s">
+    <row r="12" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="23" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="10"/>
@@ -1218,10 +1218,10 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="45" customHeight="1">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="31" t="s">
+    <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="23" t="s">
         <v>46</v>
       </c>
       <c r="D13" s="10"/>
@@ -1231,10 +1231,10 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="41" customHeight="1">
+    <row r="14" spans="1:7" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="34"/>
       <c r="B14" s="34"/>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="24" t="s">
         <v>47</v>
       </c>
       <c r="D14" s="10"/>
@@ -1244,11 +1244,11 @@
       </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="38" customHeight="1">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="28"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="6" t="s">
         <v>55</v>
       </c>
@@ -1259,9 +1259,9 @@
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" ht="38" customHeight="1">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
+    <row r="16" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="8" t="s">
         <v>54</v>
       </c>
@@ -1272,11 +1272,11 @@
       </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" ht="35" customHeight="1">
-      <c r="A17" s="28" t="s">
+    <row r="17" spans="1:7" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="28"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="6" t="s">
         <v>11</v>
       </c>
@@ -1287,9 +1287,9 @@
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" ht="33" customHeight="1">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
+    <row r="18" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="16" t="s">
         <v>21</v>
       </c>
@@ -1300,9 +1300,9 @@
       </c>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" ht="31" customHeight="1">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
+    <row r="19" spans="1:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="17" t="s">
         <v>22</v>
       </c>
@@ -1313,9 +1313,9 @@
       </c>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7" ht="31" customHeight="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
+    <row r="20" spans="1:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="17" t="s">
         <v>23</v>
       </c>
@@ -1326,10 +1326,10 @@
       </c>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:7" ht="47" customHeight="1">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="33" t="s">
+    <row r="21" spans="1:7" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="25" t="s">
         <v>50</v>
       </c>
       <c r="D21" s="12"/>
@@ -1339,9 +1339,9 @@
       </c>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:7" ht="27" customHeight="1">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
+    <row r="22" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="4" t="s">
         <v>25</v>
       </c>
@@ -1352,9 +1352,9 @@
       </c>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="1:7" ht="43" customHeight="1">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
+    <row r="23" spans="1:7" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="21" t="s">
         <v>48</v>
       </c>
@@ -1365,9 +1365,9 @@
       </c>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:7" ht="35" customHeight="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
+    <row r="24" spans="1:7" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="17" t="s">
         <v>51</v>
       </c>
@@ -1378,9 +1378,9 @@
       </c>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:7" ht="32" customHeight="1">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
+    <row r="25" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="17" t="s">
         <v>49</v>
       </c>
@@ -1391,9 +1391,9 @@
       </c>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:7" ht="31" customHeight="1">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
+    <row r="26" spans="1:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="17" t="s">
         <v>33</v>
       </c>
@@ -1404,9 +1404,9 @@
       </c>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="1:7" ht="31" customHeight="1">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
+    <row r="27" spans="1:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="17" t="s">
         <v>27</v>
       </c>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="1:7" ht="35" customHeight="1"/>
+    <row r="28" spans="1:7" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A3:A6"/>

--- a/需求2.0/v2.0迭代需求20190514.xlsx
+++ b/需求2.0/v2.0迭代需求20190514.xlsx
@@ -15,7 +15,6 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
   <si>
     <t>一级界面</t>
     <rPh sb="0" eb="4">
@@ -411,12 +410,32 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -478,6 +497,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -608,7 +634,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -712,6 +738,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1030,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1270,7 +1302,9 @@
       <c r="F16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="36" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
@@ -1324,7 +1358,9 @@
       <c r="F20" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="12"/>
+      <c r="G20" s="35" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="32"/>
@@ -1337,7 +1373,9 @@
       <c r="F21" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="12"/>
+      <c r="G21" s="12" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="32"/>
@@ -1350,7 +1388,9 @@
       <c r="F22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="12"/>
+      <c r="G22" s="35" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="32"/>
@@ -1376,7 +1416,9 @@
       <c r="F24" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="12"/>
+      <c r="G24" s="35" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="32"/>
@@ -1389,7 +1431,9 @@
       <c r="F25" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="12"/>
+      <c r="G25" s="35" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="32"/>
@@ -1402,7 +1446,9 @@
       <c r="F26" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="12"/>
+      <c r="G26" s="35" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="33"/>
@@ -1415,7 +1461,9 @@
       <c r="F27" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="12"/>
+      <c r="G27" s="35" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>

--- a/需求2.0/v2.0迭代需求20190514.xlsx
+++ b/需求2.0/v2.0迭代需求20190514.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
   <si>
     <t>一级界面</t>
     <rPh sb="0" eb="4">
@@ -424,6 +424,14 @@
   </si>
   <si>
     <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -634,7 +642,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -713,37 +721,43 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1062,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1076,14 +1090,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1109,10 +1123,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="7" t="s">
         <v>26</v>
       </c>
@@ -1126,8 +1140,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="4" t="s">
         <v>52</v>
       </c>
@@ -1136,11 +1150,13 @@
       <c r="F4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="37" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1149,11 +1165,13 @@
       <c r="F5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="38" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
-      <c r="B6" s="34"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="15" t="s">
         <v>20</v>
       </c>
@@ -1165,10 +1183,10 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="19" t="s">
         <v>29</v>
       </c>
@@ -1180,8 +1198,8 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="20" t="s">
         <v>30</v>
       </c>
@@ -1193,8 +1211,8 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="20" t="s">
         <v>32</v>
       </c>
@@ -1208,10 +1226,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="49.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="26"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="7" t="s">
         <v>38</v>
       </c>
@@ -1225,8 +1243,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="23" t="s">
         <v>39</v>
       </c>
@@ -1238,8 +1256,8 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="23" t="s">
         <v>40</v>
       </c>
@@ -1251,8 +1269,8 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="23" t="s">
         <v>46</v>
       </c>
@@ -1264,8 +1282,8 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="24" t="s">
         <v>47</v>
       </c>
@@ -1277,10 +1295,10 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="31"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="6" t="s">
         <v>55</v>
       </c>
@@ -1292,8 +1310,8 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="8" t="s">
         <v>54</v>
       </c>
@@ -1302,15 +1320,15 @@
       <c r="F16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="27" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="31"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="6" t="s">
         <v>11</v>
       </c>
@@ -1322,8 +1340,8 @@
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="16" t="s">
         <v>21</v>
       </c>
@@ -1335,8 +1353,8 @@
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="17" t="s">
         <v>22</v>
       </c>
@@ -1348,8 +1366,8 @@
       <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="17" t="s">
         <v>23</v>
       </c>
@@ -1358,13 +1376,13 @@
       <c r="F20" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="26" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="25" t="s">
         <v>50</v>
       </c>
@@ -1378,8 +1396,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="4" t="s">
         <v>25</v>
       </c>
@@ -1388,13 +1406,13 @@
       <c r="F22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="35" t="s">
+      <c r="G22" s="26" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="21" t="s">
         <v>48</v>
       </c>
@@ -1406,8 +1424,8 @@
       <c r="G23" s="12"/>
     </row>
     <row r="24" spans="1:7" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="17" t="s">
         <v>51</v>
       </c>
@@ -1416,13 +1434,13 @@
       <c r="F24" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="35" t="s">
+      <c r="G24" s="26" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="17" t="s">
         <v>49</v>
       </c>
@@ -1431,13 +1449,13 @@
       <c r="F25" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="35" t="s">
+      <c r="G25" s="26" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="17" t="s">
         <v>33</v>
       </c>
@@ -1446,13 +1464,13 @@
       <c r="F26" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="35" t="s">
+      <c r="G26" s="26" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
       <c r="C27" s="17" t="s">
         <v>27</v>
       </c>
@@ -1461,7 +1479,7 @@
       <c r="F27" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="35" t="s">
+      <c r="G27" s="26" t="s">
         <v>56</v>
       </c>
     </row>

--- a/需求2.0/v2.0迭代需求20190514.xlsx
+++ b/需求2.0/v2.0迭代需求20190514.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
   <si>
     <t>一级界面</t>
     <rPh sb="0" eb="4">
@@ -424,6 +424,22 @@
   </si>
   <si>
     <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -727,37 +743,37 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1077,7 +1093,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1090,14 +1106,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1123,10 +1139,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="7" t="s">
         <v>26</v>
       </c>
@@ -1140,8 +1156,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="4" t="s">
         <v>52</v>
       </c>
@@ -1150,13 +1166,13 @@
       <c r="F4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="28" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1165,13 +1181,13 @@
       <c r="F5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="29" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="15" t="s">
         <v>20</v>
       </c>
@@ -1183,10 +1199,10 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="19" t="s">
         <v>29</v>
       </c>
@@ -1198,8 +1214,8 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="20" t="s">
         <v>30</v>
       </c>
@@ -1211,8 +1227,8 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="20" t="s">
         <v>32</v>
       </c>
@@ -1226,10 +1242,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="49.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="28"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="7" t="s">
         <v>38</v>
       </c>
@@ -1243,8 +1259,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="23" t="s">
         <v>39</v>
       </c>
@@ -1253,11 +1269,13 @@
       <c r="F11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="29" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="23" t="s">
         <v>40</v>
       </c>
@@ -1266,11 +1284,13 @@
       <c r="F12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="29" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="23" t="s">
         <v>46</v>
       </c>
@@ -1279,11 +1299,13 @@
       <c r="F13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="29" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="24" t="s">
         <v>47</v>
       </c>
@@ -1292,13 +1314,15 @@
       <c r="F14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="29" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="33"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="6" t="s">
         <v>55</v>
       </c>
@@ -1310,8 +1334,8 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="8" t="s">
         <v>54</v>
       </c>
@@ -1325,10 +1349,10 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="33"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="6" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1364,8 @@
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="16" t="s">
         <v>21</v>
       </c>
@@ -1353,8 +1377,8 @@
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="17" t="s">
         <v>22</v>
       </c>
@@ -1366,8 +1390,8 @@
       <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="17" t="s">
         <v>23</v>
       </c>
@@ -1381,8 +1405,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="25" t="s">
         <v>50</v>
       </c>
@@ -1396,8 +1420,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="4" t="s">
         <v>25</v>
       </c>
@@ -1411,8 +1435,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="21" t="s">
         <v>48</v>
       </c>
@@ -1424,8 +1448,8 @@
       <c r="G23" s="12"/>
     </row>
     <row r="24" spans="1:7" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="17" t="s">
         <v>51</v>
       </c>
@@ -1439,8 +1463,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="17" t="s">
         <v>49</v>
       </c>
@@ -1454,8 +1478,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="17" t="s">
         <v>33</v>
       </c>
@@ -1469,8 +1493,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="17" t="s">
         <v>27</v>
       </c>

--- a/需求2.0/v2.0迭代需求20190514.xlsx
+++ b/需求2.0/v2.0迭代需求20190514.xlsx
@@ -1092,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/需求2.0/v2.0迭代需求20190514.xlsx
+++ b/需求2.0/v2.0迭代需求20190514.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13740" yWindow="5964" windowWidth="25944" windowHeight="16716"/>
+    <workbookView minimized="1" xWindow="13740" yWindow="5964" windowWidth="25944" windowHeight="16716"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
   <si>
     <t>一级界面</t>
     <rPh sb="0" eb="4">
@@ -73,13 +73,6 @@
     <t>发现</t>
     <rPh sb="0" eb="2">
       <t>fa x</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0版本无任何功能</t>
-    <rPh sb="0" eb="2">
-      <t>mu qian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -452,6 +445,17 @@
   </si>
   <si>
     <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <rPh sb="0" eb="2">
+      <t>mu qian</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1092,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1107,7 +1111,7 @@
     <row r="1" spans="1:7" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
@@ -1126,13 +1130,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>3</v>
@@ -1144,12 +1148,12 @@
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>5</v>
@@ -1159,15 +1163,15 @@
       <c r="A4" s="31"/>
       <c r="B4" s="31"/>
       <c r="C4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1179,37 +1183,39 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31"/>
       <c r="B6" s="38"/>
       <c r="C6" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -1217,12 +1223,12 @@
       <c r="A8" s="31"/>
       <c r="B8" s="31"/>
       <c r="C8" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -1230,15 +1236,15 @@
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="49.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1247,132 +1253,136 @@
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>8</v>
+        <v>42</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="31"/>
       <c r="C11" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="31"/>
       <c r="C12" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="31"/>
       <c r="B13" s="31"/>
       <c r="C13" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="38"/>
       <c r="B14" s="38"/>
       <c r="C14" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="35"/>
       <c r="C15" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="37"/>
       <c r="B16" s="37"/>
       <c r="C16" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="35"/>
       <c r="C17" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18" s="9"/>
     </row>
@@ -1380,12 +1390,12 @@
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G19" s="12"/>
     </row>
@@ -1393,57 +1403,57 @@
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G23" s="12"/>
     </row>
@@ -1451,60 +1461,60 @@
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/需求2.0/v2.0迭代需求20190514.xlsx
+++ b/需求2.0/v2.0迭代需求20190514.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="13740" yWindow="5964" windowWidth="25944" windowHeight="16716"/>
+    <workbookView xWindow="13740" yWindow="5964" windowWidth="25944" windowHeight="16716"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
   <si>
     <t>一级界面</t>
     <rPh sb="0" eb="4">
@@ -453,9 +454,16 @@
   </si>
   <si>
     <t>√</t>
-    <rPh sb="0" eb="2">
+    <rPh sb="0" eb="1">
       <t>mu qian</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次用户进入app的时候，请求我给你的地址，
+我会给你返回一个序列号，六个图片，6个链接，
+app跟本地的序列号对比一下，如果一致，则不换图，
+如果不一致，则换图。下载不成功，就用上一次的图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -662,7 +670,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -779,6 +787,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1096,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1517,7 +1528,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:7" ht="154.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="39" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A3:A6"/>
